--- a/CountryData/Indonesia/Indonesia_Workbook.xlsx
+++ b/CountryData/Indonesia/Indonesia_Workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Indonesia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1FE0B265-8421-4BC0-831A-700B1245EAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:40009_{1FE0B265-8421-4BC0-831A-700B1245EAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57650BDE-2E01-4AC3-8503-373477550AD6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="17775" yWindow="7860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indonesia_Popup" sheetId="1" r:id="rId1"/>
@@ -82,31 +82,6 @@
     <t>Mineral and Coal Mining Law, 2009</t>
   </si>
   <si>
-    <r>
-      <t>Implementation of Mineral and Coal Mining Activities, 2012</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Paywall)</t>
-    </r>
-  </si>
-  <si>
     <t>Rules of Origin of Indonesia, 2014</t>
   </si>
   <si>
@@ -182,50 +157,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Regulations on the Use of Domestic Products for Upstream business of Oil and Natural Gas, 2013</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Indonesian)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SKK Migas Work Guidelines on the Procurement of Goods or Services, 2017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Indonesian)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">January 2021 – </t>
     </r>
     <r>
@@ -400,12 +331,21 @@
       <t>Mining and Development in Indonesia: An Overview of the Regulatory Framework and Policies </t>
     </r>
   </si>
+  <si>
+    <t>Regulations on the Use of Domestic Products for Upstream business of Oil and Natural Gas, 2013 (Indonesian)</t>
+  </si>
+  <si>
+    <t>SKK Migas Work Guidelines on the Procurement of Goods or Services, 2017 (Indonesian)</t>
+  </si>
+  <si>
+    <t>Implementation of Mineral and Coal Mining Activities, 2012 (Paywall)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -536,13 +476,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1032,68 +965,65 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1451,11 +1381,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:E38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,41 +1464,41 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1576,12 +1506,12 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1590,12 +1520,12 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1604,13 +1534,13 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1618,18 +1548,18 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1640,44 +1570,44 @@
     </row>
     <row r="31" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:4" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1688,30 +1618,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=ID"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=ID"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=ID"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/indonesia"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/103/export-basket"/>
-    <hyperlink ref="A13" r:id="rId7" display="https://policy.asiapacificenergy.org/sites/default/files/Regulation of the Minister of Energy and Mineral Resources of RI No. 15%3A2013 regulating the use of Domestic Products in Upstream Oil and Natural Gas Business Activities.pdf"/>
-    <hyperlink ref="A14" r:id="rId8" display="https://www.pwc.com/id/en/energy-utilities-mining/assets/gr35-2004.pdf"/>
-    <hyperlink ref="A15" r:id="rId9" display="https://procurement.hcml.co.id/wp-content/uploads/2018/06/PTK_007_Buku_Kedua_Rev_04.pdf"/>
-    <hyperlink ref="A16" r:id="rId10" display="http://www.laohamutuk.org/Oil/PetRegime/ipa-en.pdf"/>
-    <hyperlink ref="A17" r:id="rId11" display="http://extwprlegs1.fao.org/docs/pdf/ins85947.pdf"/>
-    <hyperlink ref="A19" r:id="rId12" display="http://jdih.kemendag.go.id/backendx/image/regulasi/19000735_Permendag_No._77-2014-FINAL.pdf"/>
-    <hyperlink ref="A22" r:id="rId13" display="https://trade.ec.europa.eu/doclib/press/index.cfm?id=2235"/>
-    <hyperlink ref="A23" r:id="rId14" display="https://www.mining.com/indonesia-moving-up-the-mining-value-chain-report/"/>
-    <hyperlink ref="A24" r:id="rId15" display="https://www.inhousecommunity.com/article/indonesia-new-regulation-procurement-goods-services-state-owned-enterprises-sector/"/>
-    <hyperlink ref="A26" r:id="rId16" display="https://www.reuters.com/article/us-indonesia-minerals/indonesia-will-enforce-2022-ban-on-raw-mineral-ore-exports-official-idUSKCN1UD268"/>
-    <hyperlink ref="A30" r:id="rId17" display="https://www.wider.unu.edu/sites/default/files/Publications/Working-paper/PDF/wp2020-87.pdf"/>
-    <hyperlink ref="A31" r:id="rId18" display="https://ccsi.columbia.edu/sites/default/files/content/docs/publications/Local-Content_Indonesia-Petroleum_Nov2020.pdf"/>
-    <hyperlink ref="A32" r:id="rId19" display="https://www.iisd.org/sites/default/files/publications/case-study-indonesia-downstream-linkages.pdf"/>
-    <hyperlink ref="A33" r:id="rId20" location=":~:text=The%20life%20of%20the%20ban&amp;text=After%20the%20January%202014%20deadline,global%20minerals%20boom%20was%20over." display="https://www.insideindonesia.org/the-life-and-death-of-indonesia-s-mineral-export-ban-3 - :~:text=The%20life%20of%20the%20ban&amp;text=After%20the%20January%202014%20deadline,global%20minerals%20boom%20was%20over."/>
-    <hyperlink ref="A34" r:id="rId21" display="https://unctad.org/system/files/non-official-document/suc2017d8_en.pdf"/>
-    <hyperlink ref="A35" r:id="rId22" display="https://www.mining-technology.com/features/featurearrested-development-why-indonesia-lifted-its-mining-export-ban-5760809/"/>
-    <hyperlink ref="A36" r:id="rId23" display="https://ccsi.columbia.edu/sites/default/files/content/docs/Local-Content_Indonesia-Mining_Apr2015.pdf"/>
-    <hyperlink ref="A37" r:id="rId24" display="https://im4dc.org/wp-content/uploads/2013/09/Mining-and-Development-in-Indonesia.pdf"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=ID" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=ID" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=ID" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/indonesia" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/103/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A22" r:id="rId13" display="https://trade.ec.europa.eu/doclib/press/index.cfm?id=2235" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A23" r:id="rId14" display="https://www.mining.com/indonesia-moving-up-the-mining-value-chain-report/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A24" r:id="rId15" display="https://www.inhousecommunity.com/article/indonesia-new-regulation-procurement-goods-services-state-owned-enterprises-sector/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A26" r:id="rId16" display="https://www.reuters.com/article/us-indonesia-minerals/indonesia-will-enforce-2022-ban-on-raw-mineral-ore-exports-official-idUSKCN1UD268" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A30" r:id="rId17" display="https://www.wider.unu.edu/sites/default/files/Publications/Working-paper/PDF/wp2020-87.pdf" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A31" r:id="rId18" display="https://ccsi.columbia.edu/sites/default/files/content/docs/publications/Local-Content_Indonesia-Petroleum_Nov2020.pdf" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A32" r:id="rId19" display="https://www.iisd.org/sites/default/files/publications/case-study-indonesia-downstream-linkages.pdf" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A33" r:id="rId20" location=":~:text=The%20life%20of%20the%20ban&amp;text=After%20the%20January%202014%20deadline,global%20minerals%20boom%20was%20over." display="https://www.insideindonesia.org/the-life-and-death-of-indonesia-s-mineral-export-ban-3 - :~:text=The%20life%20of%20the%20ban&amp;text=After%20the%20January%202014%20deadline,global%20minerals%20boom%20was%20over." xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A34" r:id="rId21" display="https://unctad.org/system/files/non-official-document/suc2017d8_en.pdf" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A35" r:id="rId22" display="https://www.mining-technology.com/features/featurearrested-development-why-indonesia-lifted-its-mining-export-ban-5760809/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A36" r:id="rId23" display="https://ccsi.columbia.edu/sites/default/files/content/docs/Local-Content_Indonesia-Mining_Apr2015.pdf" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A37" r:id="rId24" display="https://im4dc.org/wp-content/uploads/2013/09/Mining-and-Development-in-Indonesia.pdf" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A18" r:id="rId25" xr:uid="{30D8EEDA-4CD6-4AE2-871D-20213A105F48}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <webPublishItems count="1">

--- a/CountryData/Indonesia/Indonesia_Workbook.xlsx
+++ b/CountryData/Indonesia/Indonesia_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Indonesia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:40009_{1FE0B265-8421-4BC0-831A-700B1245EAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57650BDE-2E01-4AC3-8503-373477550AD6}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:40009_{1FE0B265-8421-4BC0-831A-700B1245EAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{122D8128-DAD1-4EAF-9900-492F0CEBBD9B}"/>
   <bookViews>
-    <workbookView xWindow="17775" yWindow="7860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indonesia_Popup" sheetId="1" r:id="rId1"/>
@@ -89,30 +89,56 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">October 2019 – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Start of Indonesia's Nickel Ore Export Ban Reverts to January 2020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
+      <t>Analysis and Case Studies: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF241C15"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t> </t>
     </r>
-    <r>
-      <rPr>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Regulations on the Use of Domestic Products for Upstream business of Oil and Natural Gas, 2013 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Indonesian)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SKK Migas Work Guidelines on the Procurement of Goods or Services, 2017 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Indonesian)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Implementation of Mineral and Coal Mining Activities, 2012 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -123,40 +149,13 @@
   </si>
   <si>
     <r>
-      <t>Analysis and Case Studies: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF241C15"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>Prasetio and Kumalasari (2021) – Local Content Policy in Indonesia Oil and Gas Industry (Paywall)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Columbia Center on Sustainable Investment (2020) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Local Content: Indonesia – Petroleum </t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">January 2021 – </t>
     </r>
     <r>
@@ -173,6 +172,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">July 2020 – </t>
     </r>
     <r>
@@ -189,7 +195,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">March 2020 – </t>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>March 2020 –</t>
     </r>
     <r>
       <rPr>
@@ -200,12 +213,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Indonesia: New Regulation on the Procurement of Goods and Services in the State-owned Enterprises Sector</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">July 2019 – </t>
+      <t xml:space="preserve"> Indonesia: New Regulation on the Procurement of Goods and Services in the State-owned Enterprises Sector</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>October 2019 –</t>
     </r>
     <r>
       <rPr>
@@ -216,11 +236,84 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Indonesia will Ban the Exportation of Raw Mineral Ore by 2022</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t xml:space="preserve"> Start of Indonesia's Nickel Ore Export Ban Reverts to January 2020 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>July 2019 –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Indonesia will Ban the Exportation of Raw Mineral Ore by 2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prasetio and Kumalasari (2021) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Local Content Policy in Indonesia Oil and Gas Industry </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Olle Östensson (2020) – </t>
     </r>
     <r>
@@ -237,6 +330,36 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Columbia Center on Sustainable Investment (2020) –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Local Content: Indonesia – Petroleum </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">IGF (2018) – </t>
     </r>
     <r>
@@ -253,6 +376,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Eve Warburton (2017) – </t>
     </r>
     <r>
@@ -269,6 +399,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">UNCTAD (2017) – </t>
     </r>
     <r>
@@ -285,6 +422,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Mining Technology (2017) – </t>
     </r>
     <r>
@@ -301,6 +445,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Columbia Center on Sustainable Investment (2015) – </t>
     </r>
     <r>
@@ -317,7 +468,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">IM4DC (2013) – </t>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IM4DC (2013) –</t>
     </r>
     <r>
       <rPr>
@@ -328,24 +486,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Mining and Development in Indonesia: An Overview of the Regulatory Framework and Policies </t>
-    </r>
-  </si>
-  <si>
-    <t>Regulations on the Use of Domestic Products for Upstream business of Oil and Natural Gas, 2013 (Indonesian)</t>
-  </si>
-  <si>
-    <t>SKK Migas Work Guidelines on the Procurement of Goods or Services, 2017 (Indonesian)</t>
-  </si>
-  <si>
-    <t>Implementation of Mineral and Coal Mining Activities, 2012 (Paywall)</t>
+      <t xml:space="preserve"> Mining and Development in Indonesia: An Overview of the Regulatory Framework and Policies </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -568,6 +717,20 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -968,7 +1131,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -994,16 +1157,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1024,6 +1178,21 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1385,7 +1554,7 @@
   <dimension ref="A2:G38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection sqref="A1:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,13 +1567,13 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1412,7 +1581,7 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1420,7 +1589,7 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1428,7 +1597,7 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="15">
         <v>107</v>
       </c>
     </row>
@@ -1436,7 +1605,7 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1444,15 +1613,17 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -1463,43 +1634,54 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="7"/>
+      <c r="A15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="18" t="s">
         <v>15</v>
       </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="A18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -1510,111 +1692,151 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="12"/>
+      <c r="A25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="A26" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>19</v>
+      <c r="A28" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="9"/>
+      <c r="A29" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="10"/>
+      <c r="A30" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A32" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1630,23 +1852,26 @@
     <hyperlink ref="A16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="A17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="A19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A22" r:id="rId13" display="https://trade.ec.europa.eu/doclib/press/index.cfm?id=2235" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A23" r:id="rId14" display="https://www.mining.com/indonesia-moving-up-the-mining-value-chain-report/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A24" r:id="rId15" display="https://www.inhousecommunity.com/article/indonesia-new-regulation-procurement-goods-services-state-owned-enterprises-sector/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A26" r:id="rId16" display="https://www.reuters.com/article/us-indonesia-minerals/indonesia-will-enforce-2022-ban-on-raw-mineral-ore-exports-official-idUSKCN1UD268" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A30" r:id="rId17" display="https://www.wider.unu.edu/sites/default/files/Publications/Working-paper/PDF/wp2020-87.pdf" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A31" r:id="rId18" display="https://ccsi.columbia.edu/sites/default/files/content/docs/publications/Local-Content_Indonesia-Petroleum_Nov2020.pdf" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A32" r:id="rId19" display="https://www.iisd.org/sites/default/files/publications/case-study-indonesia-downstream-linkages.pdf" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A33" r:id="rId20" location=":~:text=The%20life%20of%20the%20ban&amp;text=After%20the%20January%202014%20deadline,global%20minerals%20boom%20was%20over." display="https://www.insideindonesia.org/the-life-and-death-of-indonesia-s-mineral-export-ban-3 - :~:text=The%20life%20of%20the%20ban&amp;text=After%20the%20January%202014%20deadline,global%20minerals%20boom%20was%20over." xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A34" r:id="rId21" display="https://unctad.org/system/files/non-official-document/suc2017d8_en.pdf" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A35" r:id="rId22" display="https://www.mining-technology.com/features/featurearrested-development-why-indonesia-lifted-its-mining-export-ban-5760809/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A36" r:id="rId23" display="https://ccsi.columbia.edu/sites/default/files/content/docs/Local-Content_Indonesia-Mining_Apr2015.pdf" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A37" r:id="rId24" display="https://im4dc.org/wp-content/uploads/2013/09/Mining-and-Development-in-Indonesia.pdf" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A26" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A33" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A34" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A35" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A36" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A37" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="A18" r:id="rId25" xr:uid="{30D8EEDA-4CD6-4AE2-871D-20213A105F48}"/>
+    <hyperlink ref="A25" r:id="rId26" xr:uid="{02A00978-AA08-467F-BB4C-9AC4165465A9}"/>
+    <hyperlink ref="A29" r:id="rId27" xr:uid="{E58F087A-6BEE-4DEB-B451-685A6BF77AD2}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <webPublishItems count="1">
+  <webPublishItems count="2">
     <webPublishItem id="2997" divId="Indonesia_Workbook_2997" sourceType="range" sourceRef="A1:E38" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Indonesia\Indonesia_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="22711" divId="Indonesia_Workbook_22711" sourceType="range" sourceRef="A1:F38" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Indonesia\Indonesia_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/CountryData/Indonesia/Indonesia_Workbook.xlsx
+++ b/CountryData/Indonesia/Indonesia_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Indonesia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:40009_{1FE0B265-8421-4BC0-831A-700B1245EAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{122D8128-DAD1-4EAF-9900-492F0CEBBD9B}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:40009_{1FE0B265-8421-4BC0-831A-700B1245EAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B83C3B6C-06AA-4F32-9D3D-BB40BA7D861E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indonesia_Popup" sheetId="1" r:id="rId1"/>
@@ -1554,7 +1554,7 @@
   <dimension ref="A2:G38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F38"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,9 +1869,8 @@
     <hyperlink ref="A29" r:id="rId27" xr:uid="{E58F087A-6BEE-4DEB-B451-685A6BF77AD2}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <webPublishItems count="2">
-    <webPublishItem id="2997" divId="Indonesia_Workbook_2997" sourceType="range" sourceRef="A1:E38" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Indonesia\Indonesia_Popup.htm" autoRepublish="1"/>
-    <webPublishItem id="22711" divId="Indonesia_Workbook_22711" sourceType="range" sourceRef="A1:F38" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Indonesia\Indonesia_Popup.htm" autoRepublish="1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="10823" divId="Indonesia_Workbook_10823" sourceType="range" sourceRef="A1:E38" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Indonesia\Indonesia_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>